--- a/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_6_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_6_7.xlsx
@@ -518,771 +518,771 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_0</t>
+          <t>model_6_7_6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9805442218534397</v>
+        <v>0.9930412754558455</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7888122394970294</v>
+        <v>0.8230873961081586</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9830583485752831</v>
+        <v>0.9543836362172492</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7038327466867793</v>
+        <v>0.6748208737635601</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9481141097844675</v>
+        <v>0.9356931750270782</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1301008780516698</v>
+        <v>0.04653302306874123</v>
       </c>
       <c r="H2" t="n">
-        <v>1.412213526913586</v>
+        <v>1.18301539683238</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1912974704180937</v>
+        <v>0.06904349798132235</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6168480779923761</v>
+        <v>0.1128573816899211</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4040727742052349</v>
+        <v>0.09095040857470017</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2194671842743971</v>
+        <v>0.3660735853203598</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3606949931059063</v>
+        <v>0.2157151433458978</v>
       </c>
       <c r="N2" t="n">
-        <v>1.003858997318326</v>
+        <v>1.007952828050462</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3760505257039933</v>
+        <v>0.2248985835900388</v>
       </c>
       <c r="P2" t="n">
-        <v>294.0788902888688</v>
+        <v>96.13518608984279</v>
       </c>
       <c r="Q2" t="n">
-        <v>470.8158848947579</v>
+        <v>150.9845982089118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_1</t>
+          <t>model_6_7_5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9804546378808988</v>
+        <v>0.99299896827932</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7886179344802038</v>
+        <v>0.8230867097617653</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9827821748569318</v>
+        <v>0.9558287413200584</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7030778515815728</v>
+        <v>0.6973355037659457</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9478129496687483</v>
+        <v>0.9392287955598627</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1306999264885468</v>
+        <v>0.04681593135297435</v>
       </c>
       <c r="H3" t="n">
-        <v>1.413512845455791</v>
+        <v>1.183019986433873</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1944158992177489</v>
+        <v>0.06685623220705364</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6184203503807756</v>
+        <v>0.105043404756054</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4064181247992623</v>
+        <v>0.08594991084903487</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2195061052976191</v>
+        <v>0.3566079203419345</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3615244479818022</v>
+        <v>0.2163698947473385</v>
       </c>
       <c r="N3" t="n">
-        <v>1.003876766040152</v>
+        <v>1.008001179109349</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3769152921911645</v>
+        <v>0.2255812091141612</v>
       </c>
       <c r="P3" t="n">
-        <v>294.0697024415926</v>
+        <v>96.12306344092197</v>
       </c>
       <c r="Q3" t="n">
-        <v>470.8066970474817</v>
+        <v>150.972475559991</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_2</t>
+          <t>model_6_7_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9803720610732843</v>
+        <v>0.9930541858889462</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7884407823025875</v>
+        <v>0.8230632397345923</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9825317340716869</v>
+        <v>0.9529180982204432</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7024102890246007</v>
+        <v>0.6521646123408212</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9475421230920473</v>
+        <v>0.9321292036185267</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1312521179812962</v>
+        <v>0.04644669094314959</v>
       </c>
       <c r="H4" t="n">
-        <v>1.414697462883222</v>
+        <v>1.183176930613649</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1972437633678146</v>
+        <v>0.07126169034329868</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6198107292143612</v>
+        <v>0.1207205135355781</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4085272462910879</v>
+        <v>0.09599100350210951</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2195130943113562</v>
+        <v>0.375101149974857</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3622873417348392</v>
+        <v>0.2155149436655138</v>
       </c>
       <c r="N4" t="n">
-        <v>1.003893144911084</v>
+        <v>1.007938073269776</v>
       </c>
       <c r="O4" t="n">
-        <v>0.377710663910676</v>
+        <v>0.2246898609947904</v>
       </c>
       <c r="P4" t="n">
-        <v>294.0612704812805</v>
+        <v>96.13890011074805</v>
       </c>
       <c r="Q4" t="n">
-        <v>470.7982650871696</v>
+        <v>150.9883122298171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_3</t>
+          <t>model_6_7_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9802961536562735</v>
+        <v>0.9929226251034983</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7882794599453098</v>
+        <v>0.8230570436832468</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9823047446778068</v>
+        <v>0.9572395673173555</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7018193993270914</v>
+        <v>0.7195620927456177</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9472985506028402</v>
+        <v>0.9427108471565656</v>
       </c>
       <c r="G5" t="n">
-        <v>0.131759711228369</v>
+        <v>0.04732643852122162</v>
       </c>
       <c r="H5" t="n">
-        <v>1.41577622622916</v>
+        <v>1.183218363637526</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1998068250064005</v>
+        <v>0.06472085021211239</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6210414161661988</v>
+        <v>0.09732939597210791</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4104241205862996</v>
+        <v>0.08102517672428726</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2194950738899544</v>
+        <v>0.346915639305273</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3629872053232304</v>
+        <v>0.2175464054431183</v>
       </c>
       <c r="N5" t="n">
-        <v>1.003908200927681</v>
+        <v>1.008088428453145</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3784403221409424</v>
+        <v>0.2268078063059732</v>
       </c>
       <c r="P5" t="n">
-        <v>294.0535507695277</v>
+        <v>96.10137237140756</v>
       </c>
       <c r="Q5" t="n">
-        <v>470.7905453754168</v>
+        <v>150.9507844904766</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_4</t>
+          <t>model_6_7_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9802265335846551</v>
+        <v>0.9930419390534551</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7881327730590949</v>
+        <v>0.8230179421669415</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9820991572759739</v>
+        <v>0.95144389855214</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7012952702194548</v>
+        <v>0.6294988776172392</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9470794209891641</v>
+        <v>0.9285592703787284</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1322252609678525</v>
+        <v>0.04652858558847078</v>
       </c>
       <c r="H6" t="n">
-        <v>1.41675712211271</v>
+        <v>1.183479835657106</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2021282250242933</v>
+        <v>0.07349299273967792</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6221330562075895</v>
+        <v>0.1285869332058305</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4121306406159414</v>
+        <v>0.1010400303648222</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2194649442991594</v>
+        <v>0.3836900538595838</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3636279155508451</v>
+        <v>0.2157048575912716</v>
       </c>
       <c r="N6" t="n">
-        <v>1.003922009867506</v>
+        <v>1.007952069653194</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3791083087293996</v>
+        <v>0.2248878599495438</v>
       </c>
       <c r="P6" t="n">
-        <v>294.0464965767341</v>
+        <v>96.13537682285667</v>
       </c>
       <c r="Q6" t="n">
-        <v>470.7834911826232</v>
+        <v>150.9847889419257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_5</t>
+          <t>model_6_7_3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9801628320396859</v>
+        <v>0.9928069416738561</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7879995639027557</v>
+        <v>0.822993593541216</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9819131423001458</v>
+        <v>0.9585994842792275</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7008297408898922</v>
+        <v>0.7413315123351378</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9468823166164292</v>
+        <v>0.9461095555958249</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1326512334923803</v>
+        <v>0.04810001414791284</v>
       </c>
       <c r="H7" t="n">
-        <v>1.417647892354521</v>
+        <v>1.183642655029447</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2042286220542954</v>
+        <v>0.0626625225370056</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6231026464272285</v>
+        <v>0.089774053400715</v>
       </c>
       <c r="K7" t="n">
-        <v>0.413665634240762</v>
+        <v>0.07621831646789813</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2194146856315952</v>
+        <v>0.3372130017188947</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3642131703993971</v>
+        <v>0.2193171542490756</v>
       </c>
       <c r="N7" t="n">
-        <v>1.00393464488469</v>
+        <v>1.008220638087022</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3797184790884991</v>
+        <v>0.2286539395545555</v>
       </c>
       <c r="P7" t="n">
-        <v>294.0400637991843</v>
+        <v>96.06894561547013</v>
       </c>
       <c r="Q7" t="n">
-        <v>470.7770584050734</v>
+        <v>150.9183577345391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_6</t>
+          <t>model_6_7_9</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.980104696911546</v>
+        <v>0.9930081158463724</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7878786732577179</v>
+        <v>0.822954775992865</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9817448864977556</v>
+        <v>0.949970147739037</v>
       </c>
       <c r="E8" t="n">
-        <v>0.700416756068546</v>
+        <v>0.6069270609356394</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9467051132326231</v>
+        <v>0.9250012774961948</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1330399833619392</v>
+        <v>0.0467547615299739</v>
       </c>
       <c r="H8" t="n">
-        <v>1.41845628865454</v>
+        <v>1.183902228154009</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2061284905248187</v>
+        <v>0.07572361576289936</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6239627985555868</v>
+        <v>0.1364207574741754</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4150456445402027</v>
+        <v>0.1060721697451847</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2193652957521896</v>
+        <v>0.3918654031849391</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3647464644954618</v>
+        <v>0.2162284937975888</v>
       </c>
       <c r="N8" t="n">
-        <v>1.003946175819197</v>
+        <v>1.007990724747003</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3802744766183042</v>
+        <v>0.2254337884332403</v>
       </c>
       <c r="P8" t="n">
-        <v>294.0342111383161</v>
+        <v>96.12567835505072</v>
       </c>
       <c r="Q8" t="n">
-        <v>470.7712057442052</v>
+        <v>150.9750904741198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_7</t>
+          <t>model_6_7_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9800516821297507</v>
+        <v>0.9926458968352195</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7877690576861544</v>
+        <v>0.8228911231356032</v>
       </c>
       <c r="D9" t="n">
-        <v>0.981592798653357</v>
+        <v>0.959888355422819</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7000490159742057</v>
+        <v>0.7624492960475044</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9465456811356596</v>
+        <v>0.9493902955616694</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1333944934519148</v>
+        <v>0.0491769217254182</v>
       </c>
       <c r="H9" t="n">
-        <v>1.419189288486319</v>
+        <v>1.184327875103613</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2078457977214668</v>
+        <v>0.06071172758490105</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6247287163532398</v>
+        <v>0.08244486900792944</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4162872570373533</v>
+        <v>0.07157830134591762</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2193067546269818</v>
+        <v>0.3271078934281914</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3652321090100305</v>
+        <v>0.2217587015776792</v>
       </c>
       <c r="N9" t="n">
-        <v>1.003956691147818</v>
+        <v>1.008404689331178</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3807807960252809</v>
+        <v>0.2311994286076375</v>
       </c>
       <c r="P9" t="n">
-        <v>294.028888849648</v>
+        <v>96.02466167230699</v>
       </c>
       <c r="Q9" t="n">
-        <v>470.7658834555371</v>
+        <v>150.874073791376</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_8</t>
+          <t>model_6_7_10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9800034305321718</v>
+        <v>0.9929560642305082</v>
       </c>
       <c r="C10" t="n">
-        <v>0.787669729464485</v>
+        <v>0.8228766301380859</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9814553480981494</v>
+        <v>0.9485060312413116</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6997219032914384</v>
+        <v>0.5845485596107132</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9464022932202991</v>
+        <v>0.9214720607128476</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1337171521071035</v>
+        <v>0.04710283092493324</v>
       </c>
       <c r="H10" t="n">
-        <v>1.419853496761986</v>
+        <v>1.184424789844746</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2093978272644915</v>
+        <v>0.07793965658843627</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6254100166232549</v>
+        <v>0.144187489290286</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4174039219438732</v>
+        <v>0.1110636105219494</v>
       </c>
       <c r="L10" t="n">
-        <v>0.219248496490816</v>
+        <v>0.3996428732136222</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3656735594859211</v>
+        <v>0.2170318661508794</v>
       </c>
       <c r="N10" t="n">
-        <v>1.003966261712627</v>
+        <v>1.008050212307991</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3812410399618586</v>
+        <v>0.2262713620108205</v>
       </c>
       <c r="P10" t="n">
-        <v>294.0240570301824</v>
+        <v>96.11084435040527</v>
       </c>
       <c r="Q10" t="n">
-        <v>470.7610516360715</v>
+        <v>150.9602564694743</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_9</t>
+          <t>model_6_7_11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9799595779029545</v>
+        <v>0.9928885740333747</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7875798497138353</v>
+        <v>0.8227859708099807</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9813311963846264</v>
+        <v>0.9470571992701546</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6994306948192646</v>
+        <v>0.5624383293204438</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9462733475746099</v>
+        <v>0.9179840643805686</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1340103948406018</v>
+        <v>0.04755413818392907</v>
       </c>
       <c r="H11" t="n">
-        <v>1.420454523068438</v>
+        <v>1.185031029189232</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2107996922981672</v>
+        <v>0.08013256323378538</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6260165367038713</v>
+        <v>0.1518611143719484</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4184081145010192</v>
+        <v>0.1159967524032569</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2191819724501002</v>
+        <v>0.4070473268020743</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3660743023494025</v>
+        <v>0.2180691133194453</v>
       </c>
       <c r="N11" t="n">
-        <v>1.003974959754786</v>
+        <v>1.008127343961857</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3816588432786904</v>
+        <v>0.2273527669387499</v>
       </c>
       <c r="P11" t="n">
-        <v>294.0196758172051</v>
+        <v>96.09177293144855</v>
       </c>
       <c r="Q11" t="n">
-        <v>470.7566704230942</v>
+        <v>150.9411850505176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_10</t>
+          <t>model_6_7_1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.979919715189333</v>
+        <v>0.9924328104657182</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7874985199682503</v>
+        <v>0.822743565351555</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9812190691336571</v>
+        <v>0.9610839820774767</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6991703873382961</v>
+        <v>0.7826918247056267</v>
       </c>
       <c r="F12" t="n">
-        <v>0.946157251289127</v>
+        <v>0.9525136913138849</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1342769569901405</v>
+        <v>0.05060183125944619</v>
       </c>
       <c r="H12" t="n">
-        <v>1.420998375451655</v>
+        <v>1.185314594684984</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2120657825356319</v>
+        <v>0.05890206456769044</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6265586971470877</v>
+        <v>0.07541945255645099</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4193122398413597</v>
+        <v>0.06716082124292554</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2191231794247563</v>
+        <v>0.316484836716991</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3664382035079591</v>
+        <v>0.2249485080178266</v>
       </c>
       <c r="N12" t="n">
-        <v>1.003982866408727</v>
+        <v>1.008648216610608</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3820382364629461</v>
+        <v>0.2345250317117515</v>
       </c>
       <c r="P12" t="n">
-        <v>294.0157015376063</v>
+        <v>95.96753502489089</v>
       </c>
       <c r="Q12" t="n">
-        <v>470.7526961434954</v>
+        <v>150.8169471439599</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_11</t>
+          <t>model_6_7_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9798835445078895</v>
+        <v>0.9928082485300312</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7874249151898806</v>
+        <v>0.8226851356580468</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9811178286921801</v>
+        <v>0.9456300065945652</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6989381227460155</v>
+        <v>0.5406666287143327</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9460527974231165</v>
+        <v>0.91454902055862</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1345188305035029</v>
+        <v>0.04809127519465153</v>
       </c>
       <c r="H13" t="n">
-        <v>1.421490570943531</v>
+        <v>1.185705314314518</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2132089438410454</v>
+        <v>0.08229271731983455</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6270424507212291</v>
+        <v>0.1594172485979688</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4201256972811372</v>
+        <v>0.1208550025067222</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2190661348973805</v>
+        <v>0.4140856444423598</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3667680881749432</v>
+        <v>0.2192972302484724</v>
       </c>
       <c r="N13" t="n">
-        <v>1.003990040758766</v>
+        <v>1.008219144537107</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3823821650031591</v>
+        <v>0.2286331673479982</v>
       </c>
       <c r="P13" t="n">
-        <v>294.0121021719927</v>
+        <v>96.06930901441592</v>
       </c>
       <c r="Q13" t="n">
-        <v>470.7490967778818</v>
+        <v>150.918721133485</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_12</t>
+          <t>model_6_7_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9798507922923552</v>
+        <v>0.9927172959337938</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7873584497826739</v>
+        <v>0.8225760313042949</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9810266120529141</v>
+        <v>0.944228854631969</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6987306227324193</v>
+        <v>0.5192884459017069</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9459589219519222</v>
+        <v>0.9111762320463155</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1347378447195914</v>
+        <v>0.04869947562448994</v>
       </c>
       <c r="H14" t="n">
-        <v>1.421935025427568</v>
+        <v>1.186434895630436</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2142389209025599</v>
+        <v>0.08441345699916897</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6274746253898948</v>
+        <v>0.1668368076743627</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4208567731462274</v>
+        <v>0.1256252037001309</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2190093121271371</v>
+        <v>0.4207847789952898</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3670665399074007</v>
+        <v>0.2206795768178151</v>
       </c>
       <c r="N14" t="n">
-        <v>1.003996537065979</v>
+        <v>1.008323090361378</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3826933224437476</v>
+        <v>0.2300743632726496</v>
       </c>
       <c r="P14" t="n">
-        <v>294.0088485588489</v>
+        <v>96.04417403283168</v>
       </c>
       <c r="Q14" t="n">
-        <v>470.7458431647379</v>
+        <v>150.8935861519007</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_13</t>
+          <t>model_6_7_0</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9798210998530675</v>
+        <v>0.9921601543096183</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7872983548684088</v>
+        <v>0.8225441711057134</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9809442073837982</v>
+        <v>0.9621586988310493</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6985452480320526</v>
+        <v>0.8018052573596846</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9458743934213059</v>
+        <v>0.9554339808533481</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1349363981978292</v>
+        <v>0.05242508423075191</v>
       </c>
       <c r="H15" t="n">
-        <v>1.42233688039597</v>
+        <v>1.186647944925053</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2151693971800683</v>
+        <v>0.05727540698579348</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6278607181342829</v>
+        <v>0.06878590264379401</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4215150576571756</v>
+        <v>0.06303059825520319</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2189595654104342</v>
+        <v>0.3053144888940643</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3673369001309686</v>
+        <v>0.2289652467750333</v>
       </c>
       <c r="N15" t="n">
-        <v>1.004002426475425</v>
+        <v>1.008959823646151</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3829751924617555</v>
+        <v>0.238712771353648</v>
       </c>
       <c r="P15" t="n">
-        <v>294.0059034720364</v>
+        <v>95.8967401910098</v>
       </c>
       <c r="Q15" t="n">
-        <v>470.7428980779255</v>
+        <v>150.7461523100788</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9797942389542894</v>
+        <v>0.9926177112738535</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7872440816388138</v>
+        <v>0.8224603591254547</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9808699695733945</v>
+        <v>0.9428568975998969</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6983793192178529</v>
+        <v>0.4983525580155952</v>
       </c>
       <c r="F16" t="n">
-        <v>0.945798385855521</v>
+        <v>0.907873492396914</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1351160171516417</v>
+        <v>0.04936539870405585</v>
       </c>
       <c r="H16" t="n">
-        <v>1.422699805732178</v>
+        <v>1.187208396022962</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2160076569803436</v>
+        <v>0.08649000814703046</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6282063095829579</v>
+        <v>0.1741028629022198</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4221069832816507</v>
+        <v>0.1302963334076762</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2189063780494954</v>
+        <v>0.42715365911031</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3675813068582809</v>
+        <v>0.222183254778698</v>
       </c>
       <c r="N16" t="n">
-        <v>1.004007754257001</v>
+        <v>1.00843690140131</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3832300040894412</v>
+        <v>0.2316420559173699</v>
       </c>
       <c r="P16" t="n">
-        <v>294.0032429665925</v>
+        <v>96.01701106259341</v>
       </c>
       <c r="Q16" t="n">
-        <v>470.7402375724816</v>
+        <v>150.8664231816624</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.979769914133381</v>
+        <v>0.9925111889800283</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7871951299009625</v>
+        <v>0.8223396891992387</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9808029287912292</v>
+        <v>0.941517917700863</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6982308368790302</v>
+        <v>0.4778958350274496</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9457299288036995</v>
+        <v>0.9046470412538402</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1352786773410613</v>
+        <v>0.05007771377335431</v>
       </c>
       <c r="H17" t="n">
-        <v>1.42302714622859</v>
+        <v>1.188015316375202</v>
       </c>
       <c r="I17" t="n">
-        <v>0.216764651190739</v>
+        <v>0.08851664614027917</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6285155640474336</v>
+        <v>0.1812026181082765</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4226401076190863</v>
+        <v>0.1348595667788219</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2188607733969079</v>
+        <v>0.4332117453417124</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3678024977363005</v>
+        <v>0.2237805035595244</v>
       </c>
       <c r="N17" t="n">
-        <v>1.004012579014867</v>
+        <v>1.008558641165682</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3834606115210663</v>
+        <v>0.2333073028855568</v>
       </c>
       <c r="P17" t="n">
-        <v>294.0008367032692</v>
+        <v>95.98835840944577</v>
       </c>
       <c r="Q17" t="n">
-        <v>470.7378313091583</v>
+        <v>150.8377705285148</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9797479585778248</v>
+        <v>0.9923992269650198</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7871509577250028</v>
+        <v>0.8222152460677268</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9807425103242403</v>
+        <v>0.9402132427055023</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6980985355448068</v>
+        <v>0.4579488484909167</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9456684364021916</v>
+        <v>0.9015015548652932</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1354254942421614</v>
+        <v>0.05082640428325452</v>
       </c>
       <c r="H18" t="n">
-        <v>1.423322525772628</v>
+        <v>1.18884746816863</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2174468692113897</v>
+        <v>0.09049136130691257</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6287911172114602</v>
+        <v>0.1881254630619848</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4231189932114249</v>
+        <v>0.1393082901036785</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2188125876580478</v>
+        <v>0.438976380644107</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3680020302147278</v>
+        <v>0.2254471208138497</v>
       </c>
       <c r="N18" t="n">
-        <v>1.004016933835803</v>
+        <v>1.008686597754263</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3836686385101895</v>
+        <v>0.235044871486772</v>
       </c>
       <c r="P18" t="n">
-        <v>293.9986672957623</v>
+        <v>95.9586785801512</v>
       </c>
       <c r="Q18" t="n">
-        <v>470.7356619016514</v>
+        <v>150.8080906992202</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.979728109494446</v>
+        <v>0.992283150498363</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7871110728868147</v>
+        <v>0.8220882643030427</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9806880838279902</v>
+        <v>0.9389456562343537</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6979796625440016</v>
+        <v>0.4385299447394679</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9456130835864088</v>
+        <v>0.8984406042519386</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1355582251541128</v>
+        <v>0.05160260815027115</v>
       </c>
       <c r="H19" t="n">
-        <v>1.423589235869244</v>
+        <v>1.18969659581377</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2180614286067729</v>
+        <v>0.09240994044615992</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6290387022542073</v>
+        <v>0.194865030444559</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4235500654304901</v>
+        <v>0.1436374528174154</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2187679517156786</v>
+        <v>0.444458601055836</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3681823259665146</v>
+        <v>0.2271620746301441</v>
       </c>
       <c r="N19" t="n">
-        <v>1.004020870844077</v>
+        <v>1.008819256573299</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3838566098253934</v>
+        <v>0.2368328344374699</v>
       </c>
       <c r="P19" t="n">
-        <v>293.9967080500502</v>
+        <v>95.92836612444823</v>
       </c>
       <c r="Q19" t="n">
-        <v>470.7337026559393</v>
+        <v>150.7777782435172</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9797101801667438</v>
+        <v>0.9921641591269429</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7870751321853241</v>
+        <v>0.8219596460051757</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9806389903655703</v>
+        <v>0.9377151372974106</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6978733831959076</v>
+        <v>0.4196652690118101</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9455632810397494</v>
+        <v>0.8954675239851383</v>
       </c>
       <c r="G20" t="n">
-        <v>0.135678118651014</v>
+        <v>0.05239830399886237</v>
       </c>
       <c r="H20" t="n">
-        <v>1.423829571505603</v>
+        <v>1.19055666696384</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2186157697946275</v>
+        <v>0.09427241532783674</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6292600576230696</v>
+        <v>0.201412246232035</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4239379137088486</v>
+        <v>0.1478423387701075</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2187301100687793</v>
+        <v>0.4496682327495252</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3683451080861724</v>
+        <v>0.2289067583075309</v>
       </c>
       <c r="N20" t="n">
-        <v>1.004024427074365</v>
+        <v>1.008955246712065</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3840263219168906</v>
+        <v>0.2386517929109962</v>
       </c>
       <c r="P20" t="n">
-        <v>293.9949399462183</v>
+        <v>95.89776210922574</v>
       </c>
       <c r="Q20" t="n">
-        <v>470.7319345521074</v>
+        <v>150.7471742282948</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9796939656393171</v>
+        <v>0.9920432114189974</v>
       </c>
       <c r="C21" t="n">
-        <v>0.787042667750371</v>
+        <v>0.8218303048640891</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9805947334252403</v>
+        <v>0.9365230211339813</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6977776987143616</v>
+        <v>0.4013660785440436</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9455184015313308</v>
+        <v>0.8925843511577245</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1357865452705774</v>
+        <v>0.05320708187880709</v>
       </c>
       <c r="H21" t="n">
-        <v>1.424046661331619</v>
+        <v>1.191421571769846</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2191154991611057</v>
+        <v>0.09607676497559092</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6294593463286069</v>
+        <v>0.2077632034633293</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4242874227448563</v>
+        <v>0.1519200668612576</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2186962483599957</v>
+        <v>0.4546291259416235</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3684922594445877</v>
+        <v>0.2306666033018371</v>
       </c>
       <c r="N21" t="n">
-        <v>1.004027643178979</v>
+        <v>1.009093472664003</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3841797378132789</v>
+        <v>0.2404865581500914</v>
       </c>
       <c r="P21" t="n">
-        <v>293.9933422926046</v>
+        <v>95.86712754694253</v>
       </c>
       <c r="Q21" t="n">
-        <v>470.7303368984937</v>
+        <v>150.7165396660116</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9796793159227403</v>
+        <v>0.9919211968932499</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7870134313470958</v>
+        <v>0.8217009736288738</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9805548979536117</v>
+        <v>0.9353700900695562</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6976913853711626</v>
+        <v>0.383636908461318</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9454779805260233</v>
+        <v>0.8897921560463654</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1358845079927823</v>
+        <v>0.05402299357430607</v>
       </c>
       <c r="H22" t="n">
-        <v>1.424242165294943</v>
+        <v>1.192286410335246</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2195653033014705</v>
+        <v>0.09782180528608893</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6296391171144105</v>
+        <v>0.2139163281679478</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4246022102079405</v>
+        <v>0.1558691233775033</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2186642184786283</v>
+        <v>0.4593448804930554</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3686251591966863</v>
+        <v>0.2324284698015845</v>
       </c>
       <c r="N22" t="n">
-        <v>1.004030548907886</v>
+        <v>1.009232917836286</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3843182953829647</v>
+        <v>0.2423234309542994</v>
       </c>
       <c r="P22" t="n">
-        <v>293.9918999199223</v>
+        <v>95.83669103223262</v>
       </c>
       <c r="Q22" t="n">
-        <v>470.7288945258114</v>
+        <v>150.6861031513017</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9796661437527673</v>
+        <v>0.9917988630641902</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7869870563527819</v>
+        <v>0.8215722723109169</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9805190485105856</v>
+        <v>0.9342558818917129</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6976146999071084</v>
+        <v>0.3664838569059212</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9454417366795412</v>
+        <v>0.8870915835589198</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1359725903540443</v>
+        <v>0.05484104045252389</v>
       </c>
       <c r="H23" t="n">
-        <v>1.424418535003365</v>
+        <v>1.19314703664104</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2199700990085051</v>
+        <v>0.09950823584956098</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6297988352486154</v>
+        <v>0.2198695039112357</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4248844671285603</v>
+        <v>0.1596885962129636</v>
       </c>
       <c r="L23" t="n">
-        <v>0.218635525208167</v>
+        <v>0.4638282057514816</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3687446140000478</v>
+        <v>0.2341816398706865</v>
       </c>
       <c r="N23" t="n">
-        <v>1.004033161569699</v>
+        <v>1.00937272792664</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3844428356246109</v>
+        <v>0.2441512371028054</v>
       </c>
       <c r="P23" t="n">
-        <v>293.9906039101454</v>
+        <v>95.80663290391324</v>
       </c>
       <c r="Q23" t="n">
-        <v>470.7275985160344</v>
+        <v>150.6560450229823</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9796542193579283</v>
+        <v>0.9916768269728189</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7869632910478207</v>
+        <v>0.8214447212399966</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9804866976058381</v>
+        <v>0.9331815261523774</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6975453533408804</v>
+        <v>0.3499080019001948</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9454090104958576</v>
+        <v>0.8844827139736293</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1360523288372393</v>
+        <v>0.05565709635744798</v>
       </c>
       <c r="H24" t="n">
-        <v>1.42457745370707</v>
+        <v>1.193999971239603</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2203353908026046</v>
+        <v>0.1011343470116279</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6299432681513571</v>
+        <v>0.2256223565523915</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4251393294769809</v>
+        <v>0.1633783718285408</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2186081882595519</v>
+        <v>0.4680895977161599</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3688527197096956</v>
+        <v>0.2359175626303561</v>
       </c>
       <c r="N24" t="n">
-        <v>1.004035526738923</v>
+        <v>1.00951219774535</v>
       </c>
       <c r="O24" t="n">
-        <v>0.384555543618128</v>
+        <v>0.2459610616882097</v>
       </c>
       <c r="P24" t="n">
-        <v>293.9894313927787</v>
+        <v>95.77709138347244</v>
       </c>
       <c r="Q24" t="n">
-        <v>470.7264259986678</v>
+        <v>150.6265035025415</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.979643472208797</v>
+        <v>0.9915556762414841</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7869418570379844</v>
+        <v>0.8213188326178678</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9804575371151026</v>
+        <v>0.9321461886241131</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6974833717987801</v>
+        <v>0.3339055531566997</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9453795820912977</v>
+        <v>0.8819653042885318</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1361241950729664</v>
+        <v>0.05646723185573154</v>
       </c>
       <c r="H25" t="n">
-        <v>1.42472078302954</v>
+        <v>1.194841789035442</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2206646578837162</v>
+        <v>0.1027014014327813</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6300723614075762</v>
+        <v>0.231176201556898</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4253685096456462</v>
+        <v>0.166938793906694</v>
       </c>
       <c r="L25" t="n">
-        <v>0.218583326170134</v>
+        <v>0.4721436820157989</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3689501254546019</v>
+        <v>0.2376283481736376</v>
       </c>
       <c r="N25" t="n">
-        <v>1.004037658404867</v>
+        <v>1.009650655724018</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3846570961272526</v>
+        <v>0.247744678913883</v>
       </c>
       <c r="P25" t="n">
-        <v>293.9883752217855</v>
+        <v>95.74818955246188</v>
       </c>
       <c r="Q25" t="n">
-        <v>470.7253698276746</v>
+        <v>150.5976016715309</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9796338061766902</v>
+        <v>0.9914358441650183</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7869225595381462</v>
+        <v>0.8211949513596024</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9804313817206992</v>
+        <v>0.9311487888511321</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6974276374589718</v>
+        <v>0.3184766075155627</v>
       </c>
       <c r="F26" t="n">
-        <v>0.945353167641542</v>
+        <v>0.8795384486283049</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1361888318741727</v>
+        <v>0.05726854950283455</v>
       </c>
       <c r="H26" t="n">
-        <v>1.424849825499815</v>
+        <v>1.195670183579884</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2209599927753242</v>
+        <v>0.1042110344570258</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6301884431823311</v>
+        <v>0.2365310053152079</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4255742179788276</v>
+        <v>0.1703711436447258</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2185588103683325</v>
+        <v>0.4759955271883045</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3690377106396752</v>
+        <v>0.2393084818865277</v>
       </c>
       <c r="N26" t="n">
-        <v>1.004039575634375</v>
+        <v>1.00978760666855</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3847484099949809</v>
+        <v>0.249496339397287</v>
       </c>
       <c r="P26" t="n">
-        <v>293.9874257732315</v>
+        <v>95.72000736048832</v>
       </c>
       <c r="Q26" t="n">
-        <v>470.7244203791205</v>
+        <v>150.5694194795574</v>
       </c>
     </row>
   </sheetData>
